--- a/账单/消费vip.xlsx
+++ b/账单/消费vip.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lemon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lemon/Documents/studyRecord/账单/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>瓜皮</t>
     <rPh sb="0" eb="1">
@@ -73,6 +73,73 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2件，豆豆鞋和短筒靴</t>
+    <rPh sb="1" eb="2">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dou dou xie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>duan tong xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3件，2双鞋和一件衣服</t>
+    <rPh sb="1" eb="2">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shuang xie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <rPh sb="0" eb="1">
+      <t>zong ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油马上就6000了，可以送礼物了</t>
+    <rPh sb="0" eb="1">
+      <t>jia you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ma shang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>le</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>song li wu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>le</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,15 +465,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -426,6 +494,40 @@
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43111</v>
+      </c>
+      <c r="B3">
+        <v>780</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43115</v>
+      </c>
+      <c r="B4">
+        <v>1580</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v>4922</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -438,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/账单/消费vip.xlsx
+++ b/账单/消费vip.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>瓜皮</t>
     <rPh sb="0" eb="1">
@@ -112,34 +112,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总计</t>
-    <rPh sb="0" eb="1">
-      <t>zong ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加油马上就6000了，可以送礼物了</t>
-    <rPh sb="0" eb="1">
-      <t>jia you</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ma shang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jiu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>le</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ke yi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>song li wu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>le</t>
+    <t>2件</t>
+    <rPh sb="1" eb="2">
+      <t>jian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,15 +494,20 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1">
+        <v>43115</v>
+      </c>
+      <c r="B5">
+        <v>1080</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <f>SUM(B2:B4)</f>
-        <v>4922</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
+        <v>6002</v>
       </c>
     </row>
   </sheetData>

--- a/账单/消费vip.xlsx
+++ b/账单/消费vip.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13920" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>瓜皮</t>
     <rPh sb="0" eb="1">
@@ -115,6 +116,23 @@
     <t>2件</t>
     <rPh sb="1" eb="2">
       <t>jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩霞</t>
+    <rPh sb="0" eb="1">
+      <t>cai xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被子2条</t>
+    <rPh sb="0" eb="1">
+      <t>bei zi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tiao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -520,6 +538,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43116</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>

--- a/账单/消费vip.xlsx
+++ b/账单/消费vip.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>瓜皮</t>
     <rPh sb="0" eb="1">
@@ -113,13 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2件</t>
-    <rPh sb="1" eb="2">
-      <t>jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>彩霞</t>
     <rPh sb="0" eb="1">
       <t>cai xia</t>
@@ -133,6 +126,35 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2双鞋</t>
+  </si>
+  <si>
+    <t>6条围巾1双紫色单鞋37</t>
+    <rPh sb="1" eb="2">
+      <t>tiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei jin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi se</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dan xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2条被子（540）</t>
+    <rPh sb="1" eb="2">
+      <t>ttiao bei zi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,13 +541,35 @@
         <v>1080</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43117</v>
+      </c>
       <c r="B6">
-        <f>SUM(B2:B5)</f>
-        <v>6002</v>
+        <v>840</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43119</v>
+      </c>
+      <c r="B7">
+        <v>1940</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>8782</v>
       </c>
     </row>
   </sheetData>
@@ -538,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,18 +593,18 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43116</v>
+        <v>43115</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/账单/消费vip.xlsx
+++ b/账单/消费vip.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13920" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13920" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表3" sheetId="3" r:id="rId2"/>
     <sheet name="工作表2" sheetId="2" r:id="rId3"/>
+    <sheet name="工作表4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>瓜皮</t>
     <rPh sb="0" eb="1">
@@ -48,22 +49,6 @@
     <t>田田</t>
     <rPh sb="0" eb="1">
       <t>tian tian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷锋鞋，和棕色豆豆鞋</t>
-    <rPh sb="0" eb="1">
-      <t>lei feng xie</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>he</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zong se</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>dou dou xie</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +140,79 @@
     <t>2条被子（540）</t>
     <rPh sb="1" eb="2">
       <t>ttiao bei zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯莉，和棕色豆豆鞋</t>
+    <rPh sb="0" eb="1">
+      <t>kai li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>he</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zong se</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dou dou xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯莉鞋</t>
+    <rPh sb="0" eb="1">
+      <t>kai li xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围巾</t>
+    <rPh sb="0" eb="1">
+      <t>wei jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2条</t>
+    <rPh sb="1" eb="2">
+      <t>tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1双卡其色</t>
+    <rPh sb="1" eb="2">
+      <t>shuang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ka qi se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色全毛耳套</t>
+    <rPh sb="0" eb="1">
+      <t>fen se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan mao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>er tao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个原价出售</t>
+    <rPh sb="1" eb="2">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan jia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chu shou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -508,7 +566,7 @@
         <v>2562</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -519,7 +577,7 @@
         <v>780</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -530,7 +588,7 @@
         <v>1580</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -541,7 +599,7 @@
         <v>1080</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -552,7 +610,7 @@
         <v>840</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -563,7 +621,7 @@
         <v>1940</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -593,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -604,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -618,10 +676,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="54.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -639,7 +700,65 @@
         <v>840</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1">
+        <v>504</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>390</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <f>SUM(B1:B3)</f>
+        <v>1059</v>
       </c>
     </row>
   </sheetData>

--- a/账单/消费vip.xlsx
+++ b/账单/消费vip.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13920" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId2"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId3"/>
-    <sheet name="工作表4" sheetId="4" r:id="rId4"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>瓜皮</t>
     <rPh sb="0" eb="1">
@@ -98,23 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>彩霞</t>
-    <rPh sb="0" eb="1">
-      <t>cai xia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被子2条</t>
-    <rPh sb="0" eb="1">
-      <t>bei zi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>tiao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2双鞋</t>
   </si>
   <si>
@@ -213,6 +195,16 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>chu shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1条藏蓝红</t>
+    <rPh sb="1" eb="2">
+      <t>tiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zang lan hong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,7 +591,7 @@
         <v>1080</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -610,7 +602,7 @@
         <v>840</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -621,13 +613,18 @@
         <v>1940</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43125</v>
+      </c>
       <c r="B8">
-        <f>SUM(B2:B7)</f>
-        <v>8782</v>
+        <v>800</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -637,41 +634,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43115</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -700,7 +662,7 @@
         <v>840</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -709,11 +671,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -724,35 +686,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1">
         <v>504</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>390</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">

--- a/账单/消费vip.xlsx
+++ b/账单/消费vip.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13920" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1160" windowWidth="24960" windowHeight="13920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表4" sheetId="4" r:id="rId3"/>
+    <sheet name="瓜皮" sheetId="1" r:id="rId1"/>
+    <sheet name="进价" sheetId="5" r:id="rId2"/>
+    <sheet name="魏海" sheetId="6" r:id="rId3"/>
+    <sheet name="田田" sheetId="2" r:id="rId4"/>
+    <sheet name="散客" sheetId="4" r:id="rId5"/>
+    <sheet name="阿衡" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>瓜皮</t>
     <rPh sb="0" eb="1">
@@ -58,22 +61,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2件，豆豆鞋和短筒靴</t>
-    <rPh sb="1" eb="2">
-      <t>jian</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>dou dou xie</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>he</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>duan tong xue</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +192,481 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>zang lan hong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108+ 6*34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110*2</t>
+  </si>
+  <si>
+    <t>60+220</t>
+  </si>
+  <si>
+    <t>34*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝克汉姆儿童</t>
+    <rPh sb="0" eb="1">
+      <t>bei ke</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>er tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝壳汉姆女款</t>
+    <rPh sb="0" eb="1">
+      <t>bei ke</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>han mu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nü kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝克汉姆男款</t>
+    <rPh sb="0" eb="1">
+      <t>bei ke han mu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nan kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豆鞋男款</t>
+    <rPh sb="0" eb="1">
+      <t>dou dou xie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>n kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豆鞋女款</t>
+    <rPh sb="0" eb="1">
+      <t>dou dou xie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nü kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒人鞋</t>
+    <rPh sb="0" eb="1">
+      <t>lan ren xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现款单鞋</t>
+    <rPh sb="0" eb="1">
+      <t>xian kuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本长款</t>
+    <rPh sb="0" eb="1">
+      <t>ji ben</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本短款</t>
+    <rPh sb="0" eb="1">
+      <t>ji ben</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>duan kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳套</t>
+    <rPh sb="0" eb="1">
+      <t>er tao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊毛裤</t>
+    <rPh sb="0" eb="1">
+      <t>yang mao ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2双</t>
+    <rPh sb="1" eb="2">
+      <t>shuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒人鞋rachel</t>
+    <rPh sb="0" eb="1">
+      <t>lan ren xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1条</t>
+    <rPh sb="1" eb="2">
+      <t>tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊毛衫</t>
+    <rPh sb="0" eb="1">
+      <t>yang mao shan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1件</t>
+    <rPh sb="1" eb="2">
+      <t>jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男士围巾</t>
+    <rPh sb="0" eb="1">
+      <t>nan s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短筒基本款</t>
+    <rPh sb="0" eb="1">
+      <t>duan tong zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji ben kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1双</t>
+    <rPh sb="1" eb="2">
+      <t>shuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男士单鞋豆豆</t>
+    <rPh sb="0" eb="1">
+      <t>nan s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan xie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dou dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方糖懒人鞋</t>
+    <rPh sb="0" eb="1">
+      <t>fang tang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lan ren xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊绒裤</t>
+    <rPh sb="0" eb="1">
+      <t>yang rong ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三排灰蝶节雪地靴</t>
+    <rPh sb="0" eb="1">
+      <t>san pai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui die jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xue di xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男士雪地靴</t>
+    <rPh sb="0" eb="1">
+      <t>nan s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xue di xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三件套围巾</t>
+    <rPh sb="0" eb="1">
+      <t>san jian tao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女士粉色格子围巾</t>
+    <rPh sb="0" eb="1">
+      <t>nü s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen se</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ge zi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男士板鞋</t>
+    <rPh sb="0" eb="1">
+      <t>nan s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ban xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐狸毛围巾</t>
+    <rPh sb="0" eb="1">
+      <t>hu li mao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2件</t>
+    <rPh sb="1" eb="2">
+      <t>jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐狸毛围巾，带花羊绒围巾</t>
+    <rPh sb="0" eb="1">
+      <t>hu li mao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei jin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dai hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yang rong n</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北大哥围巾</t>
+    <rPh sb="0" eb="1">
+      <t>dong bei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2件，豆豆鞋(退货)和短筒靴</t>
+    <rPh sb="1" eb="2">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dou dou xie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tui huo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>duan tong xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袜子</t>
+    <rPh sb="0" eb="1">
+      <t>wa zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色懒人鞋</t>
+    <rPh sb="0" eb="1">
+      <t>fen se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lan ren xi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠短靴冬款</t>
+    <rPh sb="0" eb="1">
+      <t>zhen zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>duan xue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dong kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老人鞋</t>
+    <rPh sb="0" eb="1">
+      <t>lao ren xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花苞鞋</t>
+    <rPh sb="0" eb="1">
+      <t>hua bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝宝蝴蝶结</t>
+    <rPh sb="0" eb="1">
+      <t>bao bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hu die jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大人单排蝴蝶结</t>
+    <rPh sb="0" eb="1">
+      <t>da ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan pai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hu die jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外豆豆鞋</t>
+    <rPh sb="0" eb="1">
+      <t>hai wai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dou dou xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外豆豆鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小皮鞋</t>
+    <rPh sb="0" eb="1">
+      <t>xiao pi xie</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +1004,7 @@
     <col min="3" max="3" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -550,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43100</v>
       </c>
@@ -560,19 +1022,25 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43111</v>
       </c>
       <c r="B3">
-        <v>780</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43115</v>
       </c>
@@ -580,10 +1048,16 @@
         <v>1580</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43115</v>
       </c>
@@ -591,10 +1065,16 @@
         <v>1080</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43117</v>
       </c>
@@ -602,10 +1082,16 @@
         <v>840</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43119</v>
       </c>
@@ -613,18 +1099,40 @@
         <v>1940</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43125</v>
       </c>
       <c r="B8">
-        <v>800</v>
+        <v>280</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <f>SUM(B2:B8)</f>
+        <v>8662</v>
+      </c>
+      <c r="E9">
+        <f>SUM(E2:E8)</f>
+        <v>1782</v>
       </c>
     </row>
   </sheetData>
@@ -635,34 +1143,207 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="54.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43102</v>
+        <v>21</v>
+      </c>
+      <c r="B1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>840</v>
-      </c>
-      <c r="C2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>9</v>
+      </c>
+      <c r="B12">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -673,54 +1354,485 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>43127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1">
+        <v>548</v>
+      </c>
+      <c r="E1">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="54.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43102</v>
+      </c>
+      <c r="B2">
+        <v>840</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43125</v>
+      </c>
+      <c r="B3">
+        <v>380</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43128</v>
+      </c>
+      <c r="B4">
+        <v>380</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B5">
+        <v>380</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
+        <v>1980</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D2:D5)</f>
+        <v>470</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
       </c>
       <c r="B1">
         <v>504</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>390</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
       </c>
       <c r="B3">
         <v>165</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>546</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>740</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>320</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>280</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>360</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>360</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>390</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>550</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13">
+        <v>666</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>320</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>280</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>250</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <f>SUM(B1:B3)</f>
-        <v>1059</v>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <v>300</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18">
+        <v>260</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <f>SUM(B1:B18)</f>
+        <v>6931</v>
+      </c>
+      <c r="F19">
+        <f>SUM(F1:F18)</f>
+        <v>839</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>43129</v>
+      </c>
+      <c r="B1">
+        <v>420</v>
+      </c>
+      <c r="C1">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/账单/消费vip.xlsx
+++ b/账单/消费vip.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1160" windowWidth="24960" windowHeight="13920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="640" yWindow="1160" windowWidth="24960" windowHeight="13920" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="瓜皮" sheetId="1" r:id="rId1"/>
     <sheet name="进价" sheetId="5" r:id="rId2"/>
-    <sheet name="魏海" sheetId="6" r:id="rId3"/>
-    <sheet name="田田" sheetId="2" r:id="rId4"/>
-    <sheet name="散客" sheetId="4" r:id="rId5"/>
-    <sheet name="阿衡" sheetId="7" r:id="rId6"/>
+    <sheet name="2018" sheetId="8" r:id="rId3"/>
+    <sheet name="魏海" sheetId="6" r:id="rId4"/>
+    <sheet name="田田" sheetId="2" r:id="rId5"/>
+    <sheet name="散客" sheetId="4" r:id="rId6"/>
+    <sheet name="阿衡" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
   <si>
     <t>瓜皮</t>
     <rPh sb="0" eb="1">
@@ -667,6 +668,23 @@
     <t>小皮鞋</t>
     <rPh sb="0" eb="1">
       <t>xiao pi xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.2.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色单鞋豆豆</t>
+    <rPh sb="0" eb="1">
+      <t>hui se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan xie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dou dou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1145,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1353,6 +1371,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1388,7 +1436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -1481,7 +1529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -1814,7 +1862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>

--- a/账单/消费vip.xlsx
+++ b/账单/消费vip.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1160" windowWidth="24960" windowHeight="13920" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="640" yWindow="1160" windowWidth="24960" windowHeight="13920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="瓜皮" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>瓜皮</t>
     <rPh sb="0" eb="1">
@@ -685,6 +685,23 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>dou dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万斯</t>
+    <rPh sb="0" eb="1">
+      <t>wan si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯凯奇运动鞋</t>
+    <rPh sb="0" eb="1">
+      <t>si kai qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yun dong xie</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1161,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1364,6 +1381,22 @@
         <v>360</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26">
+        <v>310</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1374,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/账单/消费vip.xlsx
+++ b/账单/消费vip.xlsx
@@ -9,16 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1160" windowWidth="24960" windowHeight="13920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="640" yWindow="1140" windowWidth="24960" windowHeight="13920" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="瓜皮" sheetId="1" r:id="rId1"/>
     <sheet name="进价" sheetId="5" r:id="rId2"/>
     <sheet name="2018" sheetId="8" r:id="rId3"/>
-    <sheet name="魏海" sheetId="6" r:id="rId4"/>
-    <sheet name="田田" sheetId="2" r:id="rId5"/>
-    <sheet name="散客" sheetId="4" r:id="rId6"/>
-    <sheet name="阿衡" sheetId="7" r:id="rId7"/>
+    <sheet name="2018  瓜皮" sheetId="9" r:id="rId4"/>
+    <sheet name="糖甜" sheetId="10" r:id="rId5"/>
+    <sheet name="魏海" sheetId="6" r:id="rId6"/>
+    <sheet name="田田" sheetId="2" r:id="rId7"/>
+    <sheet name="散客" sheetId="4" r:id="rId8"/>
+    <sheet name="阿衡" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
   <si>
     <t>瓜皮</t>
     <rPh sb="0" eb="1">
@@ -702,6 +704,77 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>yun dong xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色渔夫鞋</t>
+    <rPh sb="0" eb="1">
+      <t>hei se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu fu xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色渔夫鞋</t>
+    <rPh sb="0" eb="1">
+      <t>hei se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu fu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.3.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色豆豆37</t>
+    <rPh sb="0" eb="1">
+      <t>hei se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dou dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色balley</t>
+    <rPh sb="0" eb="1">
+      <t>bai se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色基本痘痘</t>
+    <rPh sb="0" eb="1">
+      <t>hei se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji ben</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dou dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色百丽37</t>
+    <rPh sb="0" eb="1">
+      <t>bai se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bai li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1180,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -1405,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1427,6 +1500,39 @@
         <v>240</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>298</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1434,6 +1540,83 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>43164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1">
+        <v>420</v>
+      </c>
+      <c r="D1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2">
+        <v>350</v>
+      </c>
+      <c r="D2">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>43167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1">
+        <v>370</v>
+      </c>
+      <c r="D1">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1469,7 +1652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -1562,7 +1745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -1895,7 +2078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>

--- a/账单/消费vip.xlsx
+++ b/账单/消费vip.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1140" windowWidth="24960" windowHeight="13920" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="640" yWindow="1140" windowWidth="24960" windowHeight="13920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="瓜皮" sheetId="1" r:id="rId1"/>
-    <sheet name="进价" sheetId="5" r:id="rId2"/>
-    <sheet name="2018" sheetId="8" r:id="rId3"/>
-    <sheet name="2018  瓜皮" sheetId="9" r:id="rId4"/>
-    <sheet name="糖甜" sheetId="10" r:id="rId5"/>
-    <sheet name="魏海" sheetId="6" r:id="rId6"/>
-    <sheet name="田田" sheetId="2" r:id="rId7"/>
-    <sheet name="散客" sheetId="4" r:id="rId8"/>
-    <sheet name="阿衡" sheetId="7" r:id="rId9"/>
+    <sheet name="2018大boss" sheetId="11" r:id="rId2"/>
+    <sheet name="进价" sheetId="5" r:id="rId3"/>
+    <sheet name="2018" sheetId="8" r:id="rId4"/>
+    <sheet name="2018  瓜皮" sheetId="9" r:id="rId5"/>
+    <sheet name="糖甜" sheetId="10" r:id="rId6"/>
+    <sheet name="魏海" sheetId="6" r:id="rId7"/>
+    <sheet name="田田" sheetId="2" r:id="rId8"/>
+    <sheet name="散客" sheetId="4" r:id="rId9"/>
+    <sheet name="阿衡" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -35,14 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
-  <si>
-    <t>瓜皮</t>
-    <rPh sb="0" eb="1">
-      <t>gua pi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
   <si>
     <t>消费</t>
     <rPh sb="0" eb="1">
@@ -776,6 +770,30 @@
     <rPh sb="2" eb="3">
       <t>bai li</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色情侣小白鞋男士</t>
+    <rPh sb="0" eb="1">
+      <t>hong se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qing lü</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao bai xie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>nan s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色情侣小白鞋男士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1103,7 +1121,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1114,10 +1132,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1128,7 +1146,7 @@
         <v>2562</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>760</v>
@@ -1142,7 +1160,7 @@
         <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -1156,10 +1174,10 @@
         <v>1580</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>280</v>
@@ -1173,10 +1191,10 @@
         <v>1080</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>220</v>
@@ -1190,10 +1208,10 @@
         <v>840</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -1207,10 +1225,10 @@
         <v>1940</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>312</v>
@@ -1224,7 +1242,7 @@
         <v>280</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -1241,6 +1259,33 @@
       <c r="E9">
         <f>SUM(E2:E8)</f>
         <v>1782</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>43129</v>
+      </c>
+      <c r="B1">
+        <v>420</v>
+      </c>
+      <c r="C1">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1250,6 +1295,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1">
+        <v>420</v>
+      </c>
+      <c r="C1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2">
+        <v>420</v>
+      </c>
+      <c r="C2">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -1264,7 +1350,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>280</v>
@@ -1272,7 +1358,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>330</v>
@@ -1280,7 +1366,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>350</v>
@@ -1288,7 +1374,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>300</v>
@@ -1296,7 +1382,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>280</v>
@@ -1304,7 +1390,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>280</v>
@@ -1312,7 +1398,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>320</v>
@@ -1320,7 +1406,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>400</v>
@@ -1328,7 +1414,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>280</v>
@@ -1336,7 +1422,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>170</v>
@@ -1344,7 +1430,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>300</v>
@@ -1352,7 +1438,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>370</v>
@@ -1360,7 +1446,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>300</v>
@@ -1368,7 +1454,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>280</v>
@@ -1376,7 +1462,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>268</v>
@@ -1384,7 +1470,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>190</v>
@@ -1392,7 +1478,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>360</v>
@@ -1400,7 +1486,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18">
         <v>338</v>
@@ -1408,7 +1494,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>420</v>
@@ -1416,7 +1502,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20">
         <v>280</v>
@@ -1424,7 +1510,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21">
         <v>320</v>
@@ -1432,7 +1518,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22">
         <v>300</v>
@@ -1440,7 +1526,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23">
         <v>320</v>
@@ -1448,7 +1534,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24">
         <v>360</v>
@@ -1456,7 +1542,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25">
         <v>320</v>
@@ -1464,7 +1550,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26">
         <v>310</v>
@@ -1476,7 +1562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1491,10 +1577,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>74</v>
       </c>
       <c r="C1">
         <v>240</v>
@@ -1502,10 +1588,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
       </c>
       <c r="C2">
         <v>300</v>
@@ -1513,10 +1599,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
       </c>
       <c r="C3">
         <v>234</v>
@@ -1524,10 +1610,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>298</v>
@@ -1539,12 +1625,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1557,7 +1643,7 @@
         <v>43164</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1">
         <v>420</v>
@@ -1571,7 +1657,7 @@
         <v>43167</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>350</v>
@@ -1586,12 +1672,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1601,7 +1687,7 @@
         <v>43167</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1">
         <v>370</v>
@@ -1616,7 +1702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1634,10 +1720,10 @@
         <v>43127</v>
       </c>
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
       </c>
       <c r="D1">
         <v>548</v>
@@ -1652,7 +1738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -1667,10 +1753,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1681,7 +1767,7 @@
         <v>840</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -1695,7 +1781,7 @@
         <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -1709,7 +1795,7 @@
         <v>380</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -1723,7 +1809,7 @@
         <v>380</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>70</v>
@@ -1745,7 +1831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -1761,16 +1847,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1">
         <v>504</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1">
         <v>68</v>
@@ -1778,16 +1864,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>390</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>40</v>
@@ -1795,13 +1881,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1809,16 +1895,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>546</v>
       </c>
       <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
       </c>
       <c r="F4">
         <v>40</v>
@@ -1826,16 +1912,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>740</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>140</v>
@@ -1843,16 +1929,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>250</v>
       </c>
       <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -1860,16 +1946,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>320</v>
       </c>
       <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
         <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
       </c>
       <c r="F7">
         <v>30</v>
@@ -1877,16 +1963,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>280</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8">
         <v>70</v>
@@ -1894,16 +1980,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>360</v>
       </c>
       <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
         <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
       </c>
       <c r="F9">
         <v>80</v>
@@ -1911,16 +1997,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>360</v>
       </c>
       <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
         <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
       </c>
       <c r="F10">
         <v>80</v>
@@ -1928,16 +2014,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>390</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11">
         <v>40</v>
@@ -1945,16 +2031,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>550</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <v>50</v>
@@ -1962,16 +2048,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>666</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13">
         <v>26</v>
@@ -1979,16 +2065,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>320</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>50</v>
@@ -1996,16 +2082,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>280</v>
       </c>
       <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
         <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -2013,16 +2099,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>250</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -2030,16 +2116,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>300</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -2047,16 +2133,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>260</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18">
         <v>50</v>
@@ -2070,33 +2156,6 @@
       <c r="F19">
         <f>SUM(F1:F18)</f>
         <v>839</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>43129</v>
-      </c>
-      <c r="B1">
-        <v>420</v>
-      </c>
-      <c r="C1">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/账单/消费vip.xlsx
+++ b/账单/消费vip.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1140" windowWidth="24960" windowHeight="13920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="640" yWindow="1140" windowWidth="24960" windowHeight="13920" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="瓜皮" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
   <si>
     <t>消费</t>
     <rPh sb="0" eb="1">
@@ -794,6 +794,19 @@
   </si>
   <si>
     <t>红色情侣小白鞋男士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色基本痘痘38</t>
+    <rPh sb="0" eb="1">
+      <t>hei se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji ben</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dou dou</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1296,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1307,7 +1320,7 @@
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -1317,8 +1330,11 @@
       <c r="C1">
         <v>320</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -1327,6 +1343,9 @@
       </c>
       <c r="C2">
         <v>310</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1627,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1638,7 +1657,7 @@
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>43164</v>
       </c>
@@ -1651,8 +1670,11 @@
       <c r="D1">
         <v>300</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43167</v>
       </c>
@@ -1664,6 +1686,26 @@
       </c>
       <c r="D2">
         <v>234</v>
+      </c>
+      <c r="E2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3">
+        <v>360</v>
+      </c>
+      <c r="D3">
+        <v>240</v>
+      </c>
+      <c r="E3">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1674,15 +1716,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>43167</v>
       </c>
@@ -1694,6 +1736,9 @@
       </c>
       <c r="D1">
         <v>298</v>
+      </c>
+      <c r="E1">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
